--- a/w1.xlsx
+++ b/w1.xlsx
@@ -505,11 +505,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.76</v>
+        <v>6.75</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3 x (1.6 км П + 1:50 отдых) + 3 х (200 Пв/200 трусцой)</t>
+          <t>3 x (1.6 км П + 1:42 отдых) + 3 х (200 Пв/200 трусцой)</t>
         </is>
       </c>
     </row>
